--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N2">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q2">
-        <v>0.3715911492531594</v>
+        <v>1.677800636828333</v>
       </c>
       <c r="R2">
-        <v>0.3715911492531594</v>
+        <v>15.100205731455</v>
       </c>
       <c r="S2">
-        <v>2.153511056815406E-05</v>
+        <v>8.215774366895162E-05</v>
       </c>
       <c r="T2">
-        <v>2.153511056815406E-05</v>
+        <v>8.215774366895161E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N3">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q3">
-        <v>3.529227667795147</v>
+        <v>13.24209316458166</v>
       </c>
       <c r="R3">
-        <v>3.529227667795147</v>
+        <v>119.178838481235</v>
       </c>
       <c r="S3">
-        <v>0.0002045320729487498</v>
+        <v>0.0006484325205125018</v>
       </c>
       <c r="T3">
-        <v>0.0002045320729487498</v>
+        <v>0.0006484325205125017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.93403878525389</v>
+        <v>10.807288</v>
       </c>
       <c r="N4">
-        <v>8.93403878525389</v>
+        <v>32.421864</v>
       </c>
       <c r="O4">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="P4">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="Q4">
-        <v>14.83077651145466</v>
+        <v>65.62326849072799</v>
       </c>
       <c r="R4">
-        <v>14.83077651145466</v>
+        <v>590.609416416552</v>
       </c>
       <c r="S4">
-        <v>0.0008594995134509186</v>
+        <v>0.003213409002855001</v>
       </c>
       <c r="T4">
-        <v>0.0008594995134509186</v>
+        <v>0.003213409002855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N5">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O5">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P5">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q5">
-        <v>330.4644520590456</v>
+        <v>409.1766307864111</v>
       </c>
       <c r="R5">
-        <v>330.4644520590456</v>
+        <v>3682.589677077699</v>
       </c>
       <c r="S5">
-        <v>0.01915166313363285</v>
+        <v>0.02003636666333844</v>
       </c>
       <c r="T5">
-        <v>0.01915166313363285</v>
+        <v>0.02003636666333843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N6">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P6">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q6">
-        <v>3138.622353556045</v>
+        <v>3229.439151892322</v>
       </c>
       <c r="R6">
-        <v>3138.622353556045</v>
+        <v>29064.9523670309</v>
       </c>
       <c r="S6">
-        <v>0.1818950197047371</v>
+        <v>0.1581376405585385</v>
       </c>
       <c r="T6">
-        <v>0.1818950197047371</v>
+        <v>0.1581376405585384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.93403878525389</v>
+        <v>10.807288</v>
       </c>
       <c r="N7">
-        <v>8.93403878525389</v>
+        <v>32.421864</v>
       </c>
       <c r="O7">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="P7">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="Q7">
-        <v>13189.34652592874</v>
+        <v>16003.99195996698</v>
       </c>
       <c r="R7">
-        <v>13189.34652592874</v>
+        <v>144035.9276397029</v>
       </c>
       <c r="S7">
-        <v>0.764372446244854</v>
+        <v>0.7836758672427785</v>
       </c>
       <c r="T7">
-        <v>0.764372446244854</v>
+        <v>0.7836758672427784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H8">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I8">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J8">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N8">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O8">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P8">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q8">
-        <v>11.46549412798691</v>
+        <v>14.55148861615333</v>
       </c>
       <c r="R8">
-        <v>11.46549412798691</v>
+        <v>130.96339754538</v>
       </c>
       <c r="S8">
-        <v>0.0006644686889366755</v>
+        <v>0.0007125503742730515</v>
       </c>
       <c r="T8">
-        <v>0.0006644686889366755</v>
+        <v>0.0007125503742730514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H9">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I9">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J9">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N9">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O9">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P9">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q9">
-        <v>108.8947871410857</v>
+        <v>114.8480717606067</v>
       </c>
       <c r="R9">
-        <v>108.8947871410857</v>
+        <v>1033.63264584546</v>
       </c>
       <c r="S9">
-        <v>0.006310864201400091</v>
+        <v>0.005623825759428834</v>
       </c>
       <c r="T9">
-        <v>0.006310864201400091</v>
+        <v>0.005623825759428833</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.2204597067405</v>
+        <v>52.663316</v>
       </c>
       <c r="H10">
-        <v>51.2204597067405</v>
+        <v>157.989948</v>
       </c>
       <c r="I10">
-        <v>0.03349530421980817</v>
+        <v>0.03420612626830831</v>
       </c>
       <c r="J10">
-        <v>0.03349530421980817</v>
+        <v>0.0342061262683083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.93403878525389</v>
+        <v>10.807288</v>
       </c>
       <c r="N10">
-        <v>8.93403878525389</v>
+        <v>32.421864</v>
       </c>
       <c r="O10">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="P10">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="Q10">
-        <v>457.6055736185537</v>
+        <v>569.147623047008</v>
       </c>
       <c r="R10">
-        <v>457.6055736185537</v>
+        <v>5122.328607423072</v>
       </c>
       <c r="S10">
-        <v>0.0265199713294714</v>
+        <v>0.02786975013460642</v>
       </c>
       <c r="T10">
-        <v>0.0265199713294714</v>
+        <v>0.02786975013460642</v>
       </c>
     </row>
   </sheetData>
